--- a/Pennybot commands.xlsx
+++ b/Pennybot commands.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="169">
   <si>
     <t>Character Commands</t>
   </si>
@@ -307,7 +307,7 @@
     <t>Lopez</t>
   </si>
   <si>
-    <t>fallen petals</t>
+    <t>Fallen petals</t>
   </si>
   <si>
     <t>Are you combat ready?</t>
@@ -392,13 +392,139 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>New Commands 7/18/16</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Arkos(Variable)</t>
+  </si>
+  <si>
+    <t>Animal Rights</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Bumblebee(Variable)</t>
+  </si>
+  <si>
+    <t>Badass(Variable)</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Catfish</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Chibi episode lookup (example, Chibi E1)</t>
+  </si>
+  <si>
+    <t>Falling Petals</t>
+  </si>
+  <si>
+    <t>Crescent Rose</t>
+  </si>
+  <si>
+    <t>Iron Witch</t>
+  </si>
+  <si>
+    <t>Crocea Mors</t>
+  </si>
+  <si>
+    <t>Monochrome(Variable)</t>
+  </si>
+  <si>
+    <t>Cute(Variable)</t>
+  </si>
+  <si>
+    <t>Pussy Magnet</t>
+  </si>
+  <si>
+    <t>Ember Celica</t>
+  </si>
+  <si>
+    <t>Renora</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Sea Monkeys</t>
+  </si>
+  <si>
+    <t>Gambol Shroud</t>
+  </si>
+  <si>
+    <t>White Rose(Variable)</t>
+  </si>
+  <si>
+    <t>Gender Bend</t>
+  </si>
+  <si>
+    <t>God Damn It Barb</t>
+  </si>
+  <si>
+    <t>God Damn It Yang</t>
+  </si>
+  <si>
+    <t>Lewd(Variable)</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Magnhild</t>
+  </si>
+  <si>
+    <t>Milo and Akouo</t>
+  </si>
+  <si>
+    <t>Myrtenaster</t>
+  </si>
+  <si>
+    <t>Ninjas of Love</t>
+  </si>
+  <si>
+    <t>People Like Grapes</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Racist</t>
+  </si>
+  <si>
+    <t>Sad(Variable)</t>
+  </si>
+  <si>
+    <t>Senpai</t>
+  </si>
+  <si>
+    <t>Shake It</t>
+  </si>
+  <si>
+    <t>StormFlower</t>
+  </si>
+  <si>
+    <t>Who are You</t>
+  </si>
+  <si>
+    <t>Yin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -418,6 +544,11 @@
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="&quot;Calibri&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="'Calibri'"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -454,6 +585,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -462,7 +596,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -476,7 +610,7 @@
     <col customWidth="1" min="1" max="1" width="7.63"/>
     <col customWidth="1" min="2" max="2" width="33.63"/>
     <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="4" max="4" width="45.38"/>
     <col customWidth="1" min="5" max="26" width="7.63"/>
   </cols>
   <sheetData>
@@ -1114,149 +1248,241 @@
       <c r="D75" s="2"/>
     </row>
     <row r="76">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="B76" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="77">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="78">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="B78" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="79">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="80">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="B80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="C81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="82">
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="C82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="83">
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="C83" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="84">
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="86">
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="87">
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="C87" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="90">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="91">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="92">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="94">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="95">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="96">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="98">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="99">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="100">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="101">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="102">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="103">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="104">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="105">
       <c r="B105" s="2"/>
